--- a/predict_result.xlsx
+++ b/predict_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13102\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13102\Desktop\dl project\rich_overnight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B352F7E2-3F50-408C-ACEE-586F78F047A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E9AA1-8475-4BA3-99E6-E7306B1EBCB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Threshold</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,11 +60,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:1:1:1:1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Transfer Profile Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1:1:1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traditional Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total fund:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -404,23 +420,44 @@
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,178 +471,344 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3045.1062236573598</v>
+        <v>2822.7434360533998</v>
       </c>
       <c r="C4">
-        <v>1879.72252534373</v>
+        <v>5506.3946703742704</v>
       </c>
       <c r="E4" s="1">
         <f>B4/B1</f>
-        <v>5.0751770394289332E-2</v>
+        <v>5.6454868721067995E-2</v>
       </c>
       <c r="F4" s="1">
         <f>C4/B1</f>
-        <v>3.132870875572883E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.11012789340748541</v>
+      </c>
+      <c r="H4">
+        <v>9743.9204004568601</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4/B1</f>
+        <v>0.19487840800913719</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4">
+        <v>35790.832855050801</v>
+      </c>
+      <c r="L4">
+        <v>-439.27932276770798</v>
+      </c>
+      <c r="N4" s="1">
+        <f>K4/L1</f>
+        <v>3.5790832855050803</v>
+      </c>
+      <c r="O4" s="1">
+        <f>L4/L1</f>
+        <v>-4.3927932276770797E-2</v>
+      </c>
+      <c r="Q4">
+        <v>146438.34441272001</v>
+      </c>
+      <c r="R4" s="1">
+        <f>Q4/L1</f>
+        <v>14.643834441272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B5">
-        <v>8393.0650985202792</v>
+        <v>2553.3103099998898</v>
       </c>
       <c r="C5">
-        <v>3634.4551530219101</v>
+        <v>5345.8477571944204</v>
       </c>
       <c r="E5" s="1">
         <f>B5/B1</f>
-        <v>0.13988441830867132</v>
+        <v>5.1066206199997799E-2</v>
       </c>
       <c r="F5" s="1">
         <f>C5/B1</f>
-        <v>6.0574252550365165E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.10691695514388841</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5">
+        <v>30429.4797834649</v>
+      </c>
+      <c r="L5">
+        <v>-439.27932276770798</v>
+      </c>
+      <c r="N5" s="1">
+        <f>K5/L1</f>
+        <v>3.0429479783464899</v>
+      </c>
+      <c r="O5" s="1">
+        <f>L5/L1</f>
+        <v>-4.3927932276770797E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B6">
-        <v>3834.4602543287201</v>
+        <v>1240.0730958422801</v>
       </c>
       <c r="C6">
-        <v>2941.1709361154499</v>
+        <v>6142.0314735854799</v>
       </c>
       <c r="E6" s="1">
         <f>B6/B1</f>
-        <v>6.3907670905478664E-2</v>
+        <v>2.48014619168456E-2</v>
       </c>
       <c r="F6" s="1">
         <f>C6/B1</f>
-        <v>4.9019515601924163E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.12284062947170959</v>
+      </c>
+      <c r="K6">
+        <v>31754.757682291201</v>
+      </c>
+      <c r="L6">
+        <v>751.96335851874699</v>
+      </c>
+      <c r="N6" s="1">
+        <f>K6/L1</f>
+        <v>3.1754757682291204</v>
+      </c>
+      <c r="O6" s="1">
+        <f>L6/L1</f>
+        <v>7.5196335851874699E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="B7">
-        <v>-1906.37770489986</v>
+        <v>181.25224079084299</v>
       </c>
       <c r="C7">
-        <v>3796.1866850430101</v>
+        <v>4629.9631892651896</v>
       </c>
       <c r="E7" s="1">
         <f>B7/B1</f>
-        <v>-3.1772961748330997E-2</v>
+        <v>3.6250448158168598E-3</v>
       </c>
       <c r="F7" s="1">
         <f>C7/B1</f>
-        <v>6.3269778084050168E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.2599263785303795E-2</v>
+      </c>
+      <c r="K7">
+        <v>10281.000968845699</v>
+      </c>
+      <c r="L7">
+        <v>751.96335851874699</v>
+      </c>
+      <c r="N7" s="1">
+        <f>K7/L1</f>
+        <v>1.0281000968845699</v>
+      </c>
+      <c r="O7" s="1">
+        <f>L7/L1</f>
+        <v>7.5196335851874699E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B8">
-        <v>5505.3119735483997</v>
+        <v>-1886.3937443294799</v>
       </c>
       <c r="C8">
-        <v>4488.2082642433497</v>
+        <v>3635.9095270298899</v>
       </c>
       <c r="E8" s="1">
         <f>B8/B1</f>
-        <v>9.1755199559139994E-2</v>
+        <v>-3.7727874886589595E-2</v>
       </c>
       <c r="F8" s="1">
         <f>C8/B1</f>
-        <v>7.4803471070722494E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.2718190540597805E-2</v>
+      </c>
+      <c r="K8">
+        <v>2525.57547807434</v>
+      </c>
+      <c r="L8">
+        <v>2536.71387208735</v>
+      </c>
+      <c r="N8" s="1">
+        <f>K8/L1</f>
+        <v>0.252557547807434</v>
+      </c>
+      <c r="O8" s="1">
+        <f>L8/L1</f>
+        <v>0.253671387208735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B9">
-        <v>-671.56723266320296</v>
+        <v>3104.1313227363098</v>
       </c>
       <c r="C9">
-        <v>1951.78922109834</v>
+        <v>6676.8091937588597</v>
       </c>
       <c r="E9" s="1">
         <f>B9/B1</f>
-        <v>-1.1192787211053382E-2</v>
+        <v>6.2082626454726196E-2</v>
       </c>
       <c r="F9" s="1">
         <f>C9/B1</f>
-        <v>3.2529820351639004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.13353618387517718</v>
+      </c>
+      <c r="K9">
+        <v>5138.7487802020496</v>
+      </c>
+      <c r="L9">
+        <v>2536.71387208735</v>
+      </c>
+      <c r="N9" s="1">
+        <f>K9/L1</f>
+        <v>0.51387487802020493</v>
+      </c>
+      <c r="O9" s="1">
+        <f>L9/L1</f>
+        <v>0.253671387208735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B10">
-        <v>-865.41744925710896</v>
+        <v>1256.95439690228</v>
       </c>
       <c r="C10">
-        <v>1194.5253479733501</v>
+        <v>-558.49148931972002</v>
       </c>
       <c r="E10" s="1">
         <f>B10/B1</f>
-        <v>-1.442362415428515E-2</v>
+        <v>2.51390879380456E-2</v>
       </c>
       <c r="F10" s="1">
         <f>C10/B1</f>
-        <v>1.9908755799555835E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-1.11698297863944E-2</v>
+      </c>
+      <c r="K10">
+        <v>-2980.6991925183102</v>
+      </c>
+      <c r="L10">
+        <v>5569.4511000061602</v>
+      </c>
+      <c r="N10" s="1">
+        <f>K10/L1</f>
+        <v>-0.29806991925183102</v>
+      </c>
+      <c r="O10" s="1">
+        <f>L10/L1</f>
+        <v>0.55694511000061597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="B11">
-        <v>1824.7199806343799</v>
+        <v>1498.2820521002</v>
       </c>
       <c r="C11">
-        <v>258.67170815677298</v>
+        <v>283.35707862409402</v>
       </c>
       <c r="E11" s="1">
         <f>B11/B1</f>
-        <v>3.0411999677239666E-2</v>
+        <v>2.9965641042003999E-2</v>
       </c>
       <c r="F11" s="1">
         <f>C11/B1</f>
-        <v>4.3111951359462164E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.6671415724818801E-3</v>
+      </c>
+      <c r="K11">
+        <v>-1645.1676350503601</v>
+      </c>
+      <c r="L11">
+        <v>4823.7676473887896</v>
+      </c>
+      <c r="N11" s="1">
+        <f>K11/L1</f>
+        <v>-0.16451676350503602</v>
+      </c>
+      <c r="O11" s="1">
+        <f>L11/L1</f>
+        <v>0.48237676473887897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K12">
+        <v>6174.08464348084</v>
+      </c>
+      <c r="L12">
+        <v>1148.5502407424101</v>
+      </c>
+      <c r="N12" s="1">
+        <f>K12/L1</f>
+        <v>0.61740846434808405</v>
+      </c>
+      <c r="O12" s="1">
+        <f>L12/L1</f>
+        <v>0.11485502407424102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0.05</v>
       </c>
-      <c r="B12">
-        <v>-241.349838258132</v>
-      </c>
-      <c r="C12">
-        <v>485.85125687195699</v>
-      </c>
-      <c r="E12" s="1">
-        <f>B12/B1</f>
-        <v>-4.0224973043021996E-3</v>
-      </c>
-      <c r="F12" s="1">
-        <f>C12/B1</f>
-        <v>8.0975209478659493E-3</v>
+      <c r="K13">
+        <v>432.19760898808801</v>
+      </c>
+      <c r="L13">
+        <v>1230.4596213515399</v>
+      </c>
+      <c r="N13" s="1">
+        <f>K13/L1</f>
+        <v>4.3219760898808801E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <f>L13/L1</f>
+        <v>0.12304596213515399</v>
       </c>
     </row>
   </sheetData>
